--- a/APIList.xlsx
+++ b/APIList.xlsx
@@ -24,20 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t>Url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Put</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://172.18.40.4:5000/v1/EAudit/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://172.18.40.4:5000/v1/EAudit/OrgID/{Org}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,11 +118,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寫在前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行SP回傳編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desctiption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改寫在前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>認證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢 AuditItemViews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新 AuditHeaderAlls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新 AuditLineAlls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增 AuditHeaderAlls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增 AuditLineAlls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除 AuditHeaderAlls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除 AuditLineAlls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return NotFound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢 AuditHeaderViews、
+AuditLineViews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增 AuditHeaderAlls、
+AuditLineAlls</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +299,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -515,265 +587,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="53.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="38.36328125" customWidth="1"/>
+    <col min="1" max="1" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" customWidth="1"/>
+    <col min="6" max="6" width="22.90625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="A17" r:id="rId1"/>
+    <hyperlink ref="A18" r:id="rId2"/>
+    <hyperlink ref="A19" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId5"/>
+    <hyperlink ref="A4" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="A7" r:id="rId8"/>
+    <hyperlink ref="A8" r:id="rId9"/>
+    <hyperlink ref="A9" r:id="rId10"/>
+    <hyperlink ref="A10" r:id="rId11"/>
+    <hyperlink ref="A11" r:id="rId12"/>
+    <hyperlink ref="A12" r:id="rId13"/>
+    <hyperlink ref="A13" r:id="rId14"/>
+    <hyperlink ref="A14" r:id="rId15"/>
+    <hyperlink ref="A15" r:id="rId16"/>
+    <hyperlink ref="A16" r:id="rId17"/>
+    <hyperlink ref="A5" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>